--- a/note.xlsx
+++ b/note.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -513,17 +513,17 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>ransom-note</t>
+          <t>contains-duplicate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
+          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/ransom-note/description/</t>
+          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
         </is>
       </c>
     </row>
@@ -533,303 +533,501 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>valid-anagram</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>add-binary</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
+          <t>Basic String operation practice</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-anagram/description/</t>
+          <t>https://leetcode.com/problems/add-binary/description/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stack</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>valid-parentheses</t>
+          <t>Arrays &amp; Hashing</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>majority-element</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
+          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+          <t>https://leetcode.com/problems/majority-element/description/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stack</t>
+          <t>Arrays &amp; Hashing</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>implement-queue-using-stacks</t>
+          <t>longest-palindrome</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
+          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
+          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>valid-palindrome</t>
+          <t>Arrays &amp; Hashing</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>ransom-note</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
+          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+          <t>https://leetcode.com/problems/ransom-note/description/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Linked List</t>
+          <t>Arrays &amp; Hashing</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>merge-two-sorted-lists</t>
+          <t>valid-anagram</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
+          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
+          <t>https://leetcode.com/problems/valid-anagram/description/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>linked-list-cycle</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>valid-parentheses</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
+          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/linked-list-cycle/</t>
+          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>best-time-to-buy-and-sell-stock</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>implement-queue-using-stacks</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
+          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Trees</t>
+          <t>Two Pointers</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>invert-binary-tree</t>
+          <t>valid-palindrome</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursive switch the left and right node until the node == None</t>
+          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>merge-two-sorted-lists</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>middle-of-the-linked-list</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>reverse-linked-list</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Binary Search</t>
+          <t>Linked List</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>first-bad-version</t>
+          <t>linked-list-cycle</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/linked-list-cycle/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Recursive</t>
+          <t>Sliding Window</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>flood-fill</t>
+          <t>best-time-to-buy-and-sell-stock</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>invert-binary-tree</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Recursive switch the left and right node until the node == None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>same-tree</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>maximum-depth-of-binary-tree</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>diameter-of-binary-tree</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>first-bad-version</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>1-D Dynamic Programming</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>climbing-stairs</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/climbing-stairs/description/</t>
         </is>

--- a/note.xlsx
+++ b/note.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -843,17 +843,17 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>same-tree</t>
+          <t>subtree-of-another-tree</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/same-tree/description/</t>
+          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
         </is>
       </c>
     </row>
@@ -865,17 +865,17 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>maximum-depth-of-binary-tree</t>
+          <t>same-tree</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
         </is>
       </c>
     </row>
@@ -887,17 +887,17 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>diameter-of-binary-tree</t>
+          <t>maximum-depth-of-binary-tree</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -907,19 +907,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>diameter-of-binary-tree</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -929,41 +929,41 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
@@ -973,63 +973,327 @@
           <t>Binary Search</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>first-bad-version</t>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Recursive</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>flood-fill</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>first-bad-version</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>1-D Dynamic Programming</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>climbing-stairs</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>min-cost-climbing-stairs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>kth-largest-element-in-a-stream</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>last-stone-weight</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>single-number</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/single-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>reverse-bits</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>missing-number</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>counting-bits</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>number-of-1-bits</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>meeting-rooms</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
         </is>
       </c>
     </row>

--- a/note.xlsx
+++ b/note.xlsx
@@ -37,7 +37,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -68,6 +68,12 @@
         <bgColor rgb="0098fb98"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffd700"/>
+        <bgColor rgb="00ffd700"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,13 +87,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -453,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -1297,6 +1304,28 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>maximum-subarray</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/note.xlsx
+++ b/note.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -1112,41 +1112,41 @@
           <t>Heap / Priority Queue</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>last-stone-weight</t>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>single-number</t>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1158,17 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>reverse-bits</t>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
@@ -1180,17 +1180,17 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>missing-number</t>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>counting-bits</t>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
@@ -1224,105 +1224,171 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>number-of-1-bits</t>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>meeting-rooms</t>
+          <t>number-of-1-bits</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Intervals</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>happy-number</t>
+          <t>meeting-rooms</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>plus-one</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>insert-interval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>maximum-subarray</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>01-matrix</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/01-matrix/description/</t>
         </is>
       </c>
     </row>

--- a/note.xlsx
+++ b/note.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -672,85 +672,85 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>implement-queue-using-stacks</t>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>evaluate-reverse-polish-notation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
+          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
+          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>valid-palindrome</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>implement-queue-using-stacks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
+          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Linked List</t>
+          <t>Two Pointers</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>merge-two-sorted-lists</t>
+          <t>valid-palindrome</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
+          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
+          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>middle-of-the-linked-list</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>3sum</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
+          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
+          <t>https://leetcode.com/problems/3sum/description/</t>
         </is>
       </c>
     </row>
@@ -760,19 +760,19 @@
           <t>Linked List</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>reverse-linked-list</t>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>merge-two-sorted-lists</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
+          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
+          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
         </is>
       </c>
     </row>
@@ -784,105 +784,105 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>linked-list-cycle</t>
+          <t>middle-of-the-linked-list</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
+          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/linked-list-cycle/</t>
+          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>best-time-to-buy-and-sell-stock</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>reverse-linked-list</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
+          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>invert-binary-tree</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>linked-list-cycle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Recursive switch the left and right node until the node == None</t>
+          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/linked-list-cycle/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>subtree-of-another-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>best-time-to-buy-and-sell-stock</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
+          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>same-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>longest-substring-without-repeating-characters</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/same-tree/description/</t>
+          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
         </is>
       </c>
     </row>
@@ -892,19 +892,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>maximum-depth-of-binary-tree</t>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>invert-binary-tree</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+          <t>Recursive switch the left and right node until the node == None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -914,19 +914,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>diameter-of-binary-tree</t>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>binary-tree-level-order-traversal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+          <t>Basic BFS can solve the problem by level order traversal.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
         </is>
       </c>
     </row>
@@ -936,19 +936,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>subtree-of-another-tree</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
         </is>
       </c>
     </row>
@@ -958,283 +958,283 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>same-tree</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>maximum-depth-of-binary-tree</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Binary Search</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>first-bad-version</t>
+          <t>diameter-of-binary-tree</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Recursive</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>flood-fill</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>climbing-stairs</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>min-cost-climbing-stairs</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>Binary Search</t>
         </is>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>kth-largest-element-in-a-stream</t>
+          <t>first-bad-version</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>k-closest-points-to-origin</t>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>last-stone-weight</t>
+          <t>climbing-stairs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>single-number</t>
+          <t>min-cost-climbing-stairs</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>reverse-bits</t>
+          <t>kth-largest-element-in-a-stream</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>missing-number</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>counting-bits</t>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
@@ -1246,149 +1246,281 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>number-of-1-bits</t>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>meeting-rooms</t>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>insert-interval</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/insert-interval/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>happy-number</t>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>plus-one</t>
+          <t>number-of-1-bits</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
-        <is>
-          <t>maximum-subarray</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>meeting-rooms</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>insert-interval</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>maximum-subarray</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>2-D Dynamic Programming</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B46" s="6" t="inlineStr">
         <is>
           <t>01-matrix</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/01-matrix/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>course-schedule</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/course-schedule/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tries</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>implement-trie-prefix-tree</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
         </is>
       </c>
     </row>

--- a/note.xlsx
+++ b/note.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -518,19 +518,19 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>contains-duplicate</t>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>product-of-array-except-self</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
+          <t>Use prefix and postfix to compute the results, original use 2 for loop can do it (time complexity: O(n)), but if use the same array to compute (compute prefix then compute the postfix in the same array), can reduce the memory usage to O(1).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
+          <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>add-binary</t>
+          <t>contains-duplicate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Basic String operation practice</t>
+          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/add-binary/description/</t>
+          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>majority-element</t>
+          <t>add-binary</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
+          <t>Basic String operation practice</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/majority-element/description/</t>
+          <t>https://leetcode.com/problems/add-binary/description/</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>longest-palindrome</t>
+          <t>majority-element</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
+          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
+          <t>https://leetcode.com/problems/majority-element/description/</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>ransom-note</t>
+          <t>longest-palindrome</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
+          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/ransom-note/description/</t>
+          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
         </is>
       </c>
     </row>
@@ -628,41 +628,41 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>valid-anagram</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>ransom-note</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
+          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-anagram/description/</t>
+          <t>https://leetcode.com/problems/ransom-note/description/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stack</t>
+          <t>Arrays &amp; Hashing</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>valid-parentheses</t>
+          <t>valid-anagram</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
+          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+          <t>https://leetcode.com/problems/valid-anagram/description/</t>
         </is>
       </c>
     </row>
@@ -672,19 +672,19 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>evaluate-reverse-polish-notation</t>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>valid-parentheses</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
+          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
+          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
         </is>
       </c>
     </row>
@@ -694,107 +694,107 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>implement-queue-using-stacks</t>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>min-stack</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
+          <t>Use two stack can do it, use an vanilla stack as normal stack, and use another stack to always store the smallest value for recording min value.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
+          <t>https://leetcode.com/problems/min-stack/description/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>valid-palindrome</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>evaluate-reverse-polish-notation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
+          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>3sum</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>implement-queue-using-stacks</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
+          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/3sum/description/</t>
+          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Linked List</t>
+          <t>Two Pointers</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>merge-two-sorted-lists</t>
+          <t>valid-palindrome</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
+          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
+          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>middle-of-the-linked-list</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>3sum</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
+          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
+          <t>https://leetcode.com/problems/3sum/description/</t>
         </is>
       </c>
     </row>
@@ -804,19 +804,19 @@
           <t>Linked List</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>reverse-linked-list</t>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>merge-two-sorted-lists</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
+          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
+          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
         </is>
       </c>
     </row>
@@ -828,105 +828,105 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>linked-list-cycle</t>
+          <t>middle-of-the-linked-list</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
+          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/linked-list-cycle/</t>
+          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>best-time-to-buy-and-sell-stock</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>reverse-linked-list</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
+          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>longest-substring-without-repeating-characters</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>linked-list-cycle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
+          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+          <t>https://leetcode.com/problems/linked-list-cycle/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trees</t>
+          <t>Sliding Window</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>invert-binary-tree</t>
+          <t>best-time-to-buy-and-sell-stock</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Recursive switch the left and right node until the node == None</t>
+          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trees</t>
+          <t>Sliding Window</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>binary-tree-level-order-traversal</t>
+          <t>longest-substring-without-repeating-characters</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Basic BFS can solve the problem by level order traversal.</t>
+          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
+          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
         </is>
       </c>
     </row>
@@ -936,19 +936,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>subtree-of-another-tree</t>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>invert-binary-tree</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
+          <t>Recursive switch the left and right node until the node == None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
+          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -958,19 +958,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>same-tree</t>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>validate-binary-search-tree</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+          <t>Use dfs plus passing the lower bound and upper bound for BST checking, recursive check the tree and return the result.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/same-tree/description/</t>
+          <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
@@ -980,19 +980,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>maximum-depth-of-binary-tree</t>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>binary-tree-level-order-traversal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+          <t>Basic BFS can solve the problem by level order traversal.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>diameter-of-binary-tree</t>
+          <t>subtree-of-another-tree</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1024,19 +1024,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>same-tree</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1046,261 +1046,261 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>maximum-depth-of-binary-tree</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>diameter-of-binary-tree</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>first-bad-version</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Recursive</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>flood-fill</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>climbing-stairs</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
+          <t>Binary Search</t>
         </is>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>min-cost-climbing-stairs</t>
+          <t>first-bad-version</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>kth-largest-element-in-a-stream</t>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>k-closest-points-to-origin</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>climbing-stairs</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
+          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>last-stone-weight</t>
+          <t>min-cost-climbing-stairs</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>single-number</t>
+          <t>kth-largest-element-in-a-stream</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>reverse-bits</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>missing-number</t>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>counting-bits</t>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
@@ -1334,191 +1334,345 @@
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>number-of-1-bits</t>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>meeting-rooms</t>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>insert-interval</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/insert-interval/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>happy-number</t>
+          <t>number-of-1-bits</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Intervals</t>
         </is>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>plus-one</t>
+          <t>meeting-rooms</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Intervals</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>maximum-subarray</t>
+          <t>insert-interval</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>01-matrix</t>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/01-matrix/description/</t>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>course-schedule</t>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/course-schedule/description/</t>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>maximum-subarray</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>01-matrix</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/01-matrix/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>course-schedule</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/course-schedule/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>number-of-islands</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>clone-graph</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/clone-graph/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Tries</t>
         </is>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>implement-trie-prefix-tree</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
         </is>

--- a/note.xlsx
+++ b/note.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -1222,41 +1222,41 @@
           <t>1-D Dynamic Programming</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>min-cost-climbing-stairs</t>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>coin-change</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+          <t>Dynamic programming by saving the coin combination by dp memory array and iterate through all the dp position, and for both position, find the most minimum combination of coin numbers abd save it, the time complexity is O(amount * len(coins)), space complexity is O(amount) (dp array).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/coin-change/description/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>kth-largest-element-in-a-stream</t>
+          <t>min-cost-climbing-stairs</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
         </is>
       </c>
     </row>
@@ -1266,19 +1266,19 @@
           <t>Heap / Priority Queue</t>
         </is>
       </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
-          <t>k-closest-points-to-origin</t>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>kth-largest-element-in-a-stream</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
         </is>
       </c>
     </row>
@@ -1288,41 +1288,41 @@
           <t>Heap / Priority Queue</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>last-stone-weight</t>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>single-number</t>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>reverse-bits</t>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>missing-number</t>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>counting-bits</t>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
@@ -1400,39 +1400,39 @@
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>number-of-1-bits</t>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>meeting-rooms</t>
+          <t>number-of-1-bits</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
         </is>
       </c>
     </row>
@@ -1442,41 +1442,41 @@
           <t>Intervals</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>insert-interval</t>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>meeting-rooms</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/insert-interval/description/</t>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
-        </is>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>happy-number</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>insert-interval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
         </is>
       </c>
     </row>
@@ -1488,83 +1488,83 @@
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>plus-one</t>
+          <t>happy-number</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>maximum-subarray</t>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2-D Dynamic Programming</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>01-matrix</t>
+          <t>maximum-subarray</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/01-matrix/description/</t>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Graphs</t>
+          <t>2-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>course-schedule</t>
+          <t>01-matrix</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/course-schedule/description/</t>
+          <t>https://leetcode.com/problems/01-matrix/description/</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>number-of-islands</t>
+          <t>course-schedule</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+          <t>https://leetcode.com/problems/course-schedule/description/</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1598,17 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>rotting-oranges</t>
+          <t>number-of-islands</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/number-of-islands/description/</t>
         </is>
       </c>
     </row>
@@ -1620,17 +1620,17 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>clone-graph</t>
+          <t>rotting-oranges</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/clone-graph/description/</t>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
         </is>
       </c>
     </row>
@@ -1642,37 +1642,59 @@
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>rotting-oranges</t>
+          <t>clone-graph</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/clone-graph/description/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Tries</t>
         </is>
       </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>implement-trie-prefix-tree</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
         </is>

--- a/note.xlsx
+++ b/note.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -64,8 +64,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098fb98"/>
-        <bgColor rgb="0098fb98"/>
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF98FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFD700"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -95,6 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -460,13 +467,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -518,19 +525,19 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>product-of-array-except-self</t>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>sort-colors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use prefix and postfix to compute the results, original use 2 for loop can do it (time complexity: O(n)), but if use the same array to compute (compute prefix then compute the postfix in the same array), can reduce the memory usage to O(1).</t>
+          <t>Use one path iteration to solve the problem in place, use three pointer, l/r/i like the quick sort to partition the array to three part 0, 1, 2 with a single while loop that swap i and l or i and r, time is O(N), space is (1).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+          <t>https://leetcode.com/problems/sort-colors/description/</t>
         </is>
       </c>
     </row>
@@ -540,19 +547,19 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>contains-duplicate</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>product-of-array-except-self</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
+          <t>Use prefix and postfix to compute the results, original use 2 for loop can do it (time complexity: O(n)), but if use the same array to compute (compute prefix then compute the postfix in the same array), can reduce the memory usage to O(1).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
+          <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
         </is>
       </c>
     </row>
@@ -564,17 +571,17 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>add-binary</t>
+          <t>contains-duplicate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Basic String operation practice</t>
+          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/add-binary/description/</t>
+          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
         </is>
       </c>
     </row>
@@ -586,17 +593,17 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>majority-element</t>
+          <t>add-binary</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
+          <t>Basic String operation practice</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/majority-element/description/</t>
+          <t>https://leetcode.com/problems/add-binary/description/</t>
         </is>
       </c>
     </row>
@@ -608,17 +615,17 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>longest-palindrome</t>
+          <t>majority-element</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
+          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
+          <t>https://leetcode.com/problems/majority-element/description/</t>
         </is>
       </c>
     </row>
@@ -630,17 +637,17 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>ransom-note</t>
+          <t>longest-palindrome</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
+          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/ransom-note/description/</t>
+          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
         </is>
       </c>
     </row>
@@ -650,41 +657,41 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>valid-anagram</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>ransom-note</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
+          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-anagram/description/</t>
+          <t>https://leetcode.com/problems/ransom-note/description/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Stack</t>
+          <t>Arrays &amp; Hashing</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>valid-parentheses</t>
+          <t>valid-anagram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
+          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+          <t>https://leetcode.com/problems/valid-anagram/description/</t>
         </is>
       </c>
     </row>
@@ -694,19 +701,19 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>min-stack</t>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>valid-parentheses</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Use two stack can do it, use an vanilla stack as normal stack, and use another stack to always store the smallest value for recording min value.</t>
+          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-stack/description/</t>
+          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
         </is>
       </c>
     </row>
@@ -718,17 +725,17 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>evaluate-reverse-polish-notation</t>
+          <t>min-stack</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
+          <t>Use two stack can do it, use an vanilla stack as normal stack, and use another stack to always store the smallest value for recording min value.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
+          <t>https://leetcode.com/problems/min-stack/description/</t>
         </is>
       </c>
     </row>
@@ -738,41 +745,41 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>implement-queue-using-stacks</t>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>evaluate-reverse-polish-notation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
+          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
+          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>valid-palindrome</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>implement-queue-using-stacks</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
+          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
         </is>
       </c>
     </row>
@@ -782,63 +789,63 @@
           <t>Two Pointers</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>3sum</t>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>valid-palindrome</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
+          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/3sum/description/</t>
+          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>merge-two-sorted-lists</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>container-with-most-water</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
+          <t>Use two pointers to compute the maxArea, and shift the small height pointer to potentially increase the maxArea. time is O(N), space is O(1).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
+          <t>https://leetcode.com/problems/container-with-most-water/description/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>middle-of-the-linked-list</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>3sum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
+          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
+          <t>https://leetcode.com/problems/3sum/description/</t>
         </is>
       </c>
     </row>
@@ -848,19 +855,19 @@
           <t>Linked List</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>reverse-linked-list</t>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>merge-two-sorted-lists</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
+          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
+          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
         </is>
       </c>
     </row>
@@ -872,149 +879,149 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>linked-list-cycle</t>
+          <t>middle-of-the-linked-list</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
+          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/linked-list-cycle/</t>
+          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>best-time-to-buy-and-sell-stock</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>reverse-linked-list</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
+          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>longest-substring-without-repeating-characters</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>linked-list-cycle</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
+          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+          <t>https://leetcode.com/problems/linked-list-cycle/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Trees</t>
+          <t>Sliding Window</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>invert-binary-tree</t>
+          <t>best-time-to-buy-and-sell-stock</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recursive switch the left and right node until the node == None</t>
+          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>validate-binary-search-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>find-all-anagrams-in-a-string</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Use dfs plus passing the lower bound and upper bound for BST checking, recursive check the tree and return the result.</t>
+          <t>Use two pointer sliding window tech to iterate through all the target string, and use dictionary or 26 characters array to compare if they are the same or not. Time is O(M+N). Space is O(1) since only 26 characters.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/description/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>binary-tree-level-order-traversal</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>longest-palindromic-substring</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Basic BFS can solve the problem by level order traversal.</t>
+          <t>Iterate all the character and with each character, use left and right pointer to check if it was an palindrome, the time is O(N^2), space is O(1).</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
+          <t>https://leetcode.com/problems/longest-palindromic-substring/description/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>subtree-of-another-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>longest-substring-without-repeating-characters</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
+          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
+          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
         </is>
       </c>
     </row>
@@ -1024,19 +1031,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>same-tree</t>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>invert-binary-tree</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+          <t>Recursive switch the left and right node until the node == None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/same-tree/description/</t>
+          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1046,19 +1053,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>maximum-depth-of-binary-tree</t>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>construct-binary-tree-from-preorder-and-inorder-traversal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+          <t>Use DFS plus HashMap to get the mid point of tree spliting point (Utilize the preorder and inorder characteristic), and recursive build the entire tree, time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/description/</t>
         </is>
       </c>
     </row>
@@ -1068,19 +1075,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>diameter-of-binary-tree</t>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>binary-tree-right-side-view</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+          <t>Use level-order-traversal (bfs using queue) to go through all the level and update the right side view, time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-right-side-view/description/</t>
         </is>
       </c>
     </row>
@@ -1090,19 +1097,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-tree</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Recursive dfs search the tree, 3 condition, 1 is a node is another's ancestor, 2 is two node are at different sub-tree, 3 is tree is null, time is O(N), space is O(1) if not counting recursive stack frame, otherwise O(N).</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1112,591 +1119,1053 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>validate-binary-search-tree</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Use dfs plus passing the lower bound and upper bound for BST checking, recursive check the tree and return the result.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>binary-tree-level-order-traversal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Basic BFS can solve the problem by level order traversal.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Binary Search</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>first-bad-version</t>
+          <t>subtree-of-another-tree</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Recursive</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>flood-fill</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>same-tree</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>climbing-stairs</t>
+          <t>maximum-depth-of-binary-tree</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
-        <is>
-          <t>coin-change</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>diameter-of-binary-tree</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dynamic programming by saving the coin combination by dp memory array and iterate through all the dp position, and for both position, find the most minimum combination of coin numbers abd save it, the time complexity is O(amount * len(coins)), space complexity is O(amount) (dp array).</t>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/coin-change/description/</t>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>min-cost-climbing-stairs</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>kth-largest-element-in-a-stream</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>k-closest-points-to-origin</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>last-stone-weight</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>time-based-key-value-store</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>Use HashMap to store the key and the list of [timestamp, value] pairs, and use binary search to find the value (because the timestamp will auto increase by default, no need to sort the list every time), the set time is O(1), the get time is O(logN).</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/time-based-key-value-store/description/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>single-number</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>search-in-rotated-sorted-array</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>Use basic binary search, then check the condition that the left side or right side is sorted, if sorted and exist in that range, search this side, if not exist, search the other side.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Binary Search</t>
         </is>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>reverse-bits</t>
+          <t>first-bad-version</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>missing-number</t>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>counting-bits</t>
+          <t>climbing-stairs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>number-of-1-bits</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>partition-equal-subset-sum</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Use HashSet to store the result of total sum that can be sum up with the different value, and append the each position of the value that can sum up into the Set, time is O(n * target), space(target).</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>meeting-rooms</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>word-break</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Use bottom up dynamic programming to solve the problem, from the word tail search that wordDict contain any word that can construct the word and mark as true, if dp[0] mark as true mean that the word can be constructed.time is O(n*m*t) where t is the word matching cost, space is O(n).</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/word-break/description/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>insert-interval</t>
+          <t>coin-change</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+          <t>Dynamic programming by saving the coin combination by dp memory array and iterate through all the dp position, and for both position, find the most minimum combination of coin numbers abd save it, the time complexity is O(amount * len(coins)), space complexity is O(amount) (dp array).</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/insert-interval/description/</t>
+          <t>https://leetcode.com/problems/coin-change/description/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>happy-number</t>
+          <t>min-cost-climbing-stairs</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>plus-one</t>
+          <t>kth-largest-element-in-a-stream</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>maximum-subarray</t>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>01-matrix</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/01-matrix/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>course-schedule</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/course-schedule/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>number-of-islands</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>string-to-integer-atoi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+          <t>Use string parsing tech to dealing all the edge case, time O(N), space is O(1).</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+          <t>https://leetcode.com/problems/string-to-integer-atoi/description/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>rotting-oranges</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>clone-graph</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/clone-graph/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>rotting-oranges</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>number-of-1-bits</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>meeting-rooms</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="inlineStr">
+        <is>
+          <t>merge-intervals</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sort the intervals first with the start element, and then iterate all the intervals and merge them, time: O(NlogN).</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/merge-intervals/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>insert-interval</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>spiral-matrix</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Use boundary plus spiral moving tech to move the point to get all the element, time is O(m * n), space is O(1).</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/spiral-matrix/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>maximum-subarray</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>01-matrix</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/01-matrix/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="inlineStr">
+        <is>
+          <t>unique-paths</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Use Top-Down dynamic programming to compute the result, can even use space optimization tech to reduce the memory usage to only memo the last row. time is O(M*N), space is O(N).</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/unique-paths/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>course-schedule</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/course-schedule/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>number-of-islands</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>clone-graph</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/clone-graph/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>Tries</t>
         </is>
       </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>implement-trie-prefix-tree</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="inlineStr">
+        <is>
+          <t>combination-sum</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Use dfs to track the every combination of the elements, if equal -&gt; push into result, if exceed the sum or out of range -&gt; break, then continue search the rest of combination, be aware of the shallow copy that push into the result array, might result in call by reference issue.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/combination-sum/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="inlineStr">
+        <is>
+          <t>word-search</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Use backtracking tech to search every possible 4 direction to build the word, use label to bloack the text that already visited to avoid reuse the text. Time is O(M*4^N). Space is O(N).</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-search/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="inlineStr">
+        <is>
+          <t>letter-combinations-of-a-phone-number</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Use backtracking and a map to map the number to the string, and find all the solution by  building the entire string. Time is O(N*4^N), Space is O(N).</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>subsets</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Use backtracking to store whether to include the current number or skip it, time O(N * 2^N), space is O(N).</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/subsets/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="inlineStr">
+        <is>
+          <t>permutations</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Use recursive approach to build the permutations from bottom to top, and insert the one element into the array each step (multiple site insertion), time is O(N! * N^2), space is O(N! * N).</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/permutations/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Union Find</t>
+        </is>
+      </c>
+      <c r="B77" s="7" t="inlineStr">
+        <is>
+          <t>accounts-merge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Use union find data structure to create mail to index of account and index of account to mail list, the time is O(m*n)log(m*n), the space is (m*n).</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/accounts-merge/description/</t>
         </is>
       </c>
     </row>

--- a/note.xlsx
+++ b/note.xlsx
@@ -37,7 +37,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -80,6 +80,12 @@
         <bgColor rgb="00ffd700"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f08080"/>
+        <bgColor rgb="00f08080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -102,6 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -467,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
@@ -527,17 +534,17 @@
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>sort-colors</t>
+          <t>valid-sudoku</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use one path iteration to solve the problem in place, use three pointer, l/r/i like the quick sort to partition the array to three part 0, 1, 2 with a single while loop that swap i and l or i and r, time is O(N), space is (1).</t>
+          <t>Use HashMap to record the rows and cols and sub-boxes (divided by 3). Time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/sort-colors/description/</t>
+          <t>https://leetcode.com/problems/valid-sudoku/description/</t>
         </is>
       </c>
     </row>
@@ -547,19 +554,19 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>product-of-array-except-self</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>sort-colors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Use prefix and postfix to compute the results, original use 2 for loop can do it (time complexity: O(n)), but if use the same array to compute (compute prefix then compute the postfix in the same array), can reduce the memory usage to O(1).</t>
+          <t>Use one path iteration to solve the problem in place, use three pointer, l/r/i like the quick sort to partition the array to three part 0, 1, 2 with a single while loop that swap i and l or i and r, time is O(N), space is (1).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+          <t>https://leetcode.com/problems/sort-colors/description/</t>
         </is>
       </c>
     </row>
@@ -569,19 +576,19 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>contains-duplicate</t>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>product-of-array-except-self</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
+          <t>Use prefix and postfix to compute the results, original use 2 for loop can do it (time complexity: O(n)), but if use the same array to compute (compute prefix then compute the postfix in the same array), can reduce the memory usage to O(1).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
+          <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
         </is>
       </c>
     </row>
@@ -593,17 +600,17 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>add-binary</t>
+          <t>contains-duplicate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Basic String operation practice</t>
+          <t>Can use both HashSets approach (time-O(n), space-O(n)) or Sorting approach (time-O(n), space-O(1)), consider space or time complexity, which one we want to optimize</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/add-binary/description/</t>
+          <t>https://leetcode.com/problems/contains-duplicate/description/</t>
         </is>
       </c>
     </row>
@@ -615,17 +622,17 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>majority-element</t>
+          <t>add-binary</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
+          <t>Basic String operation practice</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/majority-element/description/</t>
+          <t>https://leetcode.com/problems/add-binary/description/</t>
         </is>
       </c>
     </row>
@@ -637,17 +644,17 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>longest-palindrome</t>
+          <t>majority-element</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
+          <t>Can use HashMap to solve, but the Boyer Moore String Search Algorithm is very important to keep tracking the counts changed in the process, save many memory usage.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
+          <t>https://leetcode.com/problems/majority-element/description/</t>
         </is>
       </c>
     </row>
@@ -659,17 +666,17 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>ransom-note</t>
+          <t>longest-palindrome</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
+          <t>Can use both HashMap or Array to solve this problem, but only array may be more efficiently about time and space complexity by reduce the HashMap operation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/ransom-note/description/</t>
+          <t>https://leetcode.com/problems/longest-palindrome/description/</t>
         </is>
       </c>
     </row>
@@ -679,41 +686,41 @@
           <t>Arrays &amp; Hashing</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>valid-anagram</t>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>ransom-note</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
+          <t>Use HashMap to trace the number of the character, can use arrays instead of HashMaps (early stop), this would be especially helpful if the character set is known to be ASCII or Unicode with a reasonably small range</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-anagram/description/</t>
+          <t>https://leetcode.com/problems/ransom-note/description/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stack</t>
+          <t>Arrays &amp; Hashing</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>valid-parentheses</t>
+          <t>valid-anagram</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
+          <t>Hash map approach to only look once when looping the two string and add it to Hash map (time: O(S+T), spaceㄤO(S+T)), or sort the two string first then compare them (time-O(S+T), space-O(?))</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+          <t>https://leetcode.com/problems/valid-anagram/description/</t>
         </is>
       </c>
     </row>
@@ -723,19 +730,19 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>min-stack</t>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>valid-parentheses</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Use two stack can do it, use an vanilla stack as normal stack, and use another stack to always store the smallest value for recording min value.</t>
+          <t>Hash map plus Stack data structure, create Hash map for comparison, then push or pop character into Stack, finally return Stack is empty or not</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-stack/description/</t>
+          <t>https://leetcode.com/problems/valid-parentheses/description/</t>
         </is>
       </c>
     </row>
@@ -745,19 +752,19 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>evaluate-reverse-polish-notation</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>daily-temperatures</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
+          <t>Use stack to keep track and fill the result by poping the element that smaller than the current value from stack than calculate the distance using the index different. Time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
+          <t>https://leetcode.com/problems/daily-temperatures/description/</t>
         </is>
       </c>
     </row>
@@ -767,415 +774,415 @@
           <t>Stack</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>implement-queue-using-stacks</t>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>largest-rectangle-in-histogram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
+          <t>Use stack data structure to store the pair of index and height, update the stack and compute the maxArea when iterate through the lists, finally after iterate through the entire lists, compute the remain element in the stack and potentailly update the maxArea. Time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
+          <t>https://leetcode.com/problems/largest-rectangle-in-histogram/description/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>valid-palindrome</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>min-stack</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
+          <t>Use two stack can do it, use an vanilla stack as normal stack, and use another stack to always store the smallest value for recording min value.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+          <t>https://leetcode.com/problems/min-stack/description/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>container-with-most-water</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>evaluate-reverse-polish-notation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Use two pointers to compute the maxArea, and shift the small height pointer to potentially increase the maxArea. time is O(N), space is O(1).</t>
+          <t>Stack to process the String elements, push the numbers into the Stack and if encounter the operation, pop the numbers out to do the operation then push back, time complexity: O(N).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/container-with-most-water/description/</t>
+          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Two Pointers</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>3sum</t>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>implement-queue-using-stacks</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
+          <t>One stack first stores the element, and if pop or peek happens, reverse to element into the second stack before pop or peek actions</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/3sum/description/</t>
+          <t>https://leetcode.com/problems/implement-queue-using-stacks/description/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Linked List</t>
+          <t>Two Pointers</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>merge-two-sorted-lists</t>
+          <t>valid-palindrome</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
+          <t>Two pointer from head and tail, screen the entire array if char is alpha or num, then see if left == right, time: O(n)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
+          <t>https://leetcode.com/problems/valid-palindrome/description/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>middle-of-the-linked-list</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>trapping-rain-water</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
+          <t>Use two pointer to keep tracking the leftMax and rightMax height that can trap the water by computing the max number substract by current number, and keep update and shift the left and right pointer and Max number of left and right when iterate through the entire array. Time O(N), Space is O(N).</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
+          <t>https://leetcode.com/problems/trapping-rain-water/description/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>reverse-linked-list</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>container-with-most-water</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
+          <t>Use two pointers to compute the maxArea, and shift the small height pointer to potentially increase the maxArea. time is O(N), space is O(1).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
+          <t>https://leetcode.com/problems/container-with-most-water/description/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Linked List</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>linked-list-cycle</t>
+          <t>Two Pointers</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>3sum</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
+          <t>Sort the array first to make the detection of duplicate numbers quicker, then use two pointer technique to find the sum==0, time complexity: O(NlogN) + O(N^2).</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/linked-list-cycle/</t>
+          <t>https://leetcode.com/problems/3sum/description/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
+          <t>Linked List</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>best-time-to-buy-and-sell-stock</t>
+          <t>merge-two-sorted-lists</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
+          <t>Create dummy node (save the head position), screen the two array when they are not None, then link them, finally link the array that is remain, then return dummy node</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+          <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>find-all-anagrams-in-a-string</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>merge-k-sorted-lists</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Use two pointer sliding window tech to iterate through all the target string, and use dictionary or 26 characters array to compare if they are the same or not. Time is O(M+N). Space is O(1) since only 26 characters.</t>
+          <t>Use priorityQueue to sort the list based on the first element, then pop one element and append it to the result list and update the pointer at the end, finally return the result list head. Time is O(NlogK), space is (K).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/description/</t>
+          <t>https://leetcode.com/problems/merge-k-sorted-lists/description/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
+          <t>Linked List</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>longest-palindromic-substring</t>
+          <t>lru-cache</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Iterate all the character and with each character, use left and right pointer to check if it was an palindrome, the time is O(N^2), space is O(1).</t>
+          <t>Use double linked list tech plus helper Node class to track the the most recent and least used node, and create insert and remove helper function to modify the Node linking structure when put and get. Time is O(1), Space is O(N).</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-palindromic-substring/description/</t>
+          <t>https://leetcode.com/problems/lru-cache/description/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sliding Window</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>longest-substring-without-repeating-characters</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>middle-of-the-linked-list</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
+          <t>Use slow and fast pointer to find the middle node, be aware of the edge case, time-O(n), space-O(1)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+          <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>invert-binary-tree</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>reverse-linked-list</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Recursive switch the left and right node until the node == None</t>
+          <t>Can be reversed either iteratively or recursively, the iterative ver. use the two pointer to loop through the entire list and reverse them, the recursive ver. split the problem to the one last node, then back linked the nodes from the end. The T of both method are both O(n), but the M of iterative method is O(1), and the recursive method is O(n)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>construct-binary-tree-from-preorder-and-inorder-traversal</t>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>linked-list-cycle</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Use DFS plus HashMap to get the mid point of tree spliting point (Utilize the preorder and inorder characteristic), and recursive build the entire tree, time is O(N), space is O(N).</t>
+          <t>Floyd's Tortoise and Hare Algorithm use the slow (+1 per cycle) and fast (+2 per cycle) pointer to detect if there is any cycle exist, fast pointer eventually will catch up slow pointer inside n loop, time: O(n), space: O(1)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/description/</t>
+          <t>https://leetcode.com/problems/linked-list-cycle/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>binary-tree-right-side-view</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>best-time-to-buy-and-sell-stock</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Use level-order-traversal (bfs using queue) to go through all the level and update the right side view, time is O(N), space is O(N).</t>
+          <t>Two pointer start from 0 and 1, then shift the right pointer, update the profit, then if find the new lowest point, shift left, until right pointer reach the end</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-tree-right-side-view/description/</t>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>minimum-window-substring</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Recursive dfs search the tree, 3 condition, 1 is a node is another's ancestor, 2 is two node are at different sub-tree, 3 is tree is null, time is O(N), space is O(1) if not counting recursive stack frame, otherwise O(N).</t>
+          <t>Use two pointer, sliding window and HashMap to keep track whether the current string meet the condition, if not meet, keep go to the right and update the HashMap, if meet, keep poping left element to maybe decrease the substring size, be aware of edge case like the string is empty. Time is O(N). Space is O(N).</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/minimum-window-substring/description/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>validate-binary-search-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>find-all-anagrams-in-a-string</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Use dfs plus passing the lower bound and upper bound for BST checking, recursive check the tree and return the result.</t>
+          <t>Use two pointer sliding window tech to iterate through all the target string, and use dictionary or 26 characters array to compare if they are the same or not. Time is O(M+N). Space is O(1) since only 26 characters.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/description/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
-        <is>
-          <t>binary-tree-level-order-traversal</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>longest-palindromic-substring</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Basic BFS can solve the problem by level order traversal.</t>
+          <t>Iterate all the character and with each character, use left and right pointer to check if it was an palindrome, the time is O(N^2), space is O(1).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
+          <t>https://leetcode.com/problems/longest-palindromic-substring/description/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Trees</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>subtree-of-another-tree</t>
+          <t>Sliding Window</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>longest-substring-without-repeating-characters</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
+          <t>Sliding window plus HashSet to record the longest result, if the duplicate appear, keep popping the  character in the set util it doesn't have any duplicate, and keep the longest result so far.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
+          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
         </is>
       </c>
     </row>
@@ -1185,19 +1192,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>same-tree</t>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>invert-binary-tree</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
+          <t>Recursive switch the left and right node until the node == None</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/same-tree/description/</t>
+          <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1207,19 +1214,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>maximum-depth-of-binary-tree</t>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>serialize-and-deserialize-binary-tree</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
+          <t>Use preorder dfs traversal to serialize the tree to array and same with deserialize the array into tree, call the left subtree then right subtree. Time O(N), Space O(N).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
         </is>
       </c>
     </row>
@@ -1229,19 +1236,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>diameter-of-binary-tree</t>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>kth-smallest-element-in-a-bst</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
+          <t>Use recursive DFS or iterative left to right traversal to find the top smallest element. Time is O(N), Space is O(N).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+          <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/</t>
         </is>
       </c>
     </row>
@@ -1251,19 +1258,19 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>balanced-binary-tree</t>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>construct-binary-tree-from-preorder-and-inorder-traversal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
+          <t>Use DFS plus HashMap to get the mid point of tree spliting point (Utilize the preorder and inorder characteristic), and recursive build the entire tree, time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
+          <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/description/</t>
         </is>
       </c>
     </row>
@@ -1273,899 +1280,1273 @@
           <t>Trees</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>binary-tree-right-side-view</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
+          <t>Use level-order-traversal (bfs using queue) to go through all the level and update the right side view, time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-right-side-view/description/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>binary-search</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-tree</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
+          <t>Recursive dfs search the tree, 3 condition, 1 is a node is another's ancestor, 2 is two node are at different sub-tree, 3 is tree is null, time is O(N), space is O(1) if not counting recursive stack frame, otherwise O(N).</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/binary-search/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Binary Search</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>time-based-key-value-store</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>validate-binary-search-tree</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Use HashMap to store the key and the list of [timestamp, value] pairs, and use binary search to find the value (because the timestamp will auto increase by default, no need to sort the list every time), the set time is O(1), the get time is O(logN).</t>
+          <t>Use dfs plus passing the lower bound and upper bound for BST checking, recursive check the tree and return the result.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/time-based-key-value-store/description/</t>
+          <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Binary Search</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>search-in-rotated-sorted-array</t>
+          <t>binary-tree-level-order-traversal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Use basic binary search, then check the condition that the left side or right side is sorted, if sorted and exist in that range, search this side, if not exist, search the other side.</t>
+          <t>Basic BFS can solve the problem by level order traversal.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
+          <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Binary Search</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>first-bad-version</t>
+          <t>subtree-of-another-tree</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
+          <t>Recursive search using the isSameTree helper function (also a recursive search) to search to entire tree, time-O(n*m) because search every node in the main tree with isSameTree function</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/first-bad-version/description/</t>
+          <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Recursive</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>flood-fill</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>same-tree</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
+          <t>Use DFS to check the two tree's root node and recursively check their sub-tree's node is all the same or not</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/flood-fill/description/</t>
+          <t>https://leetcode.com/problems/same-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>climbing-stairs</t>
+          <t>maximum-depth-of-binary-tree</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
+          <t>Can be solved using recursive dfs, iterative dfs, iterative bfs, both of those method will achieve time-O(n), space-O(n) in worst case, recursive dfs keep track the max depth of current layer, iterative dfs use stack to keep track the max depth of current layer, and iterative bfs use queue to walk through every layer and increse the depth count (keep offer and poll the node in the queue to track are there any node exist to be processed)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="inlineStr">
-        <is>
-          <t>partition-equal-subset-sum</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>diameter-of-binary-tree</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Use HashSet to store the result of total sum that can be sum up with the different value, and append the each position of the value that can sum up into the Set, time is O(n * target), space(target).</t>
+          <t>Use bottom-up dfs to find the every sub-tree's height and diameter, then recursive call and update the max diameter though global variable, this can achieve time-O(n) complexity</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
+          <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>word-break</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>balanced-binary-tree</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Use bottom up dynamic programming to solve the problem, from the word tail search that wordDict contain any word that can construct the word and mark as true, if dp[0] mark as true mean that the word can be constructed.time is O(n*m*t) where t is the word matching cost, space is O(n).</t>
+          <t>Using dfs to recursive search the tree by dynamic programming, assume the lower level sub tree was balanced, then the upper sub tree need to see whether left and right depth diff &lt;=1, return the boolean is balanced and depth so far every times, until the node == None</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/word-break/description/</t>
+          <t>https://leetcode.com/problems/balanced-binary-tree/submissions/1209923431/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>coin-change</t>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>lowest-common-ancestor-of-a-binary-search-tree</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dynamic programming by saving the coin combination by dp memory array and iterate through all the dp position, and for both position, find the most minimum combination of coin numbers abd save it, the time complexity is O(amount * len(coins)), space complexity is O(amount) (dp array).</t>
+          <t>Detect the split point directly, search until the left and right node is not at different tree, time: O(logn), space:O(1)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/coin-change/description/</t>
+          <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>min-cost-climbing-stairs</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>binary-search</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
+          <t>Recursive search the array at mid (left + (right-left)/2) - warning: overfolw, update to mid+1 or mid-1, don't forget to search the left == right condition in the last round, time: O(logn)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+          <t>https://leetcode.com/problems/binary-search/description/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>kth-largest-element-in-a-stream</t>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>time-based-key-value-store</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
+          <t>Use HashMap to store the key and the list of [timestamp, value] pairs, and use binary search to find the value (because the timestamp will auto increase by default, no need to sort the list every time), the set time is O(1), the get time is O(logN).</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+          <t>https://leetcode.com/problems/time-based-key-value-store/description/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>Binary Search</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>k-closest-points-to-origin</t>
+          <t>search-in-rotated-sorted-array</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
+          <t>Use basic binary search, then check the condition that the left side or right side is sorted, if sorted and exist in that range, search this side, if not exist, search the other side.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+          <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Heap / Priority Queue</t>
+          <t>Binary Search</t>
         </is>
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>last-stone-weight</t>
+          <t>first-bad-version</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
+          <t>Binary search method, use start and end two pointer to move to the mid point where the true value is, be careful for the boundary conditions</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+          <t>https://leetcode.com/problems/first-bad-version/description/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>single-number</t>
+          <t>Recursive</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>flood-fill</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
+          <t>Recursive search and change the next +1 or -1 pixel and check the boundary condition and color condition</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/single-number/description/</t>
+          <t>https://leetcode.com/problems/flood-fill/description/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="inlineStr">
-        <is>
-          <t>string-to-integer-atoi</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>climbing-stairs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Use string parsing tech to dealing all the edge case, time O(N), space is O(1).</t>
+          <t>Use memory array to perform dynamic programming, setting the initial condition, and iterate through the entire length of 1D array, get the optimal result</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/string-to-integer-atoi/description/</t>
+          <t>https://leetcode.com/problems/climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
-        <is>
-          <t>reverse-bits</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>house-robber</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
+          <t>Use cache to store the result so far, and include current element or the last element by choosing the maximum combination. Time is O(N), space is O(N).</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/reverse-bits/description/</t>
+          <t>https://leetcode.com/problems/house-robber/description/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>missing-number</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>partition-equal-subset-sum</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
+          <t>Use HashSet to store the result of total sum that can be sum up with the different value, and append the each position of the value that can sum up into the Set, time is O(n * target), space(target).</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/missing-number/description/</t>
+          <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>counting-bits</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>word-break</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
+          <t>Use bottom up dynamic programming to solve the problem, from the word tail search that wordDict contain any word that can construct the word and mark as true, if dp[0] mark as true mean that the word can be constructed.time is O(n*m*t) where t is the word matching cost, space is O(n).</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/counting-bits/description/</t>
+          <t>https://leetcode.com/problems/word-break/description/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>number-of-1-bits</t>
+          <t>1-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>coin-change</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
+          <t>Dynamic programming by saving the coin combination by dp memory array and iterate through all the dp position, and for both position, find the most minimum combination of coin numbers abd save it, the time complexity is O(amount * len(coins)), space complexity is O(amount) (dp array).</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+          <t>https://leetcode.com/problems/coin-change/description/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intervals</t>
+          <t>1-D Dynamic Programming</t>
         </is>
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t>meeting-rooms</t>
+          <t>min-cost-climbing-stairs</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
+          <t>Dynamic programming to calculate the sum of best choice from the end of the step (create a dummy stair=0 at the end), and finally return the min of 0 or 1, for choose the best starting position</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+          <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t>merge-intervals</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>kth-largest-element-in-a-stream</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sort the intervals first with the start element, and then iterate all the intervals and merge them, time: O(NlogN).</t>
+          <t>PriorityQueue (heap) to selective store the largest k item, for heapify take time-O(logN), remove the smallest item from the heap take time-O(1)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/merge-intervals/description/</t>
+          <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
-        <is>
-          <t>insert-interval</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>find-median-from-data-stream</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
+          <t>Use two priority queue to maintain the medium value getting in O(1) time by SmallHeap (MaxHeap) and LargeHeap (MinHeap), that push the value, check and move the value from SmallHeap to LargeHeap if needed, and also balance the two heap in O(logN) time for every push operation.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/insert-interval/description/</t>
+          <t>https://leetcode.com/problems/find-median-from-data-stream/description/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>happy-number</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>task-scheduler</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
+          <t>Use Max Heap aka Priority Queue to main the max frequent task to process (process max frequent task is the best), then use a queue to maintain the cooldown task, then based on the time swith the task between queue and Heap and process all the task. Time is O(N). Space is O(1).</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/happy-number/description/</t>
+          <t>https://leetcode.com/problems/task-scheduler/description/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
-        </is>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>spiral-matrix</t>
+          <t>Heap / Priority Queue</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>k-closest-points-to-origin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Use boundary plus spiral moving tech to move the point to get all the element, time is O(m * n), space is O(1).</t>
+          <t>MinHeap to maintain the order according to their distance, note that the time complexity is NlogN, even the heap construct should take T(N) (total time complexity is klogN), but in Java it cannot direct construct the heap same time as a comparator argument, so need to add to the heap N time * add operation per time: logN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/spiral-matrix/description/</t>
+          <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Math &amp; Geometry</t>
+          <t>Heap / Priority Queue</t>
         </is>
       </c>
       <c r="B62" s="5" t="inlineStr">
         <is>
-          <t>plus-one</t>
+          <t>last-stone-weight</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
+          <t>MaxHeap to keep popping the stone and push pack the result stone util only one stone left (if there is no stone left, return 0), building a heap take time-O(n), get the largest element and heapify will take time-O(logN), we will do it N time, so the overall time-O(NlogN)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
+          <t>https://leetcode.com/problems/last-stone-weight/description/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
-        <is>
-          <t>maximum-subarray</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>single-number</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
+          <t>Using the method that every bit of the same interger added together will result the all 0 bit, so the final result will left only the single number that was alone</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+          <t>https://leetcode.com/problems/single-number/description/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
-          <t>01-matrix</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B64" s="7" t="inlineStr">
+        <is>
+          <t>string-to-integer-atoi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+          <t>Use string parsing tech to dealing all the edge case, time O(N), space is O(1).</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/01-matrix/description/</t>
+          <t>https://leetcode.com/problems/string-to-integer-atoi/description/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2-D Dynamic Programming</t>
-        </is>
-      </c>
-      <c r="B65" s="7" t="inlineStr">
-        <is>
-          <t>unique-paths</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>reverse-bits</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Use Top-Down dynamic programming to compute the result, can even use space optimization tech to reduce the memory usage to only memo the last row. time is O(M*N), space is O(N).</t>
+          <t>Bits shifting technique to reverse the original bits to a new number's bits, one calculate from left to right, another one calculate from right to left</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/unique-paths/description/</t>
+          <t>https://leetcode.com/problems/reverse-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>course-schedule</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>missing-number</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+          <t>Calculate the total sum it should had, then substract it using all the array elements, the result will be the answer</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/course-schedule/description/</t>
+          <t>https://leetcode.com/problems/missing-number/description/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
-        <is>
-          <t>number-of-islands</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>counting-bits</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+          <t>Calculate the bit sum using "number-of-1-bits" method to iterate through all the numbers</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+          <t>https://leetcode.com/problems/counting-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
-        <is>
-          <t>rotting-oranges</t>
+          <t>Bit Manipulation</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>number-of-1-bits</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+          <t>Bit manipulation using &amp;= operation to calculate n with n-1 (this will reduce a 1 bit per calculation)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
-        <is>
-          <t>clone-graph</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>meeting-rooms</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+          <t>Sort the time interval base on the start time then compare the end time of the event and the start time of the next event to check if the meeting is not overlaping</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/clone-graph/description/</t>
+          <t>https://leetcode.com/problems/meeting-rooms/description/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Graphs</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
-        <is>
-          <t>rotting-oranges</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>maximum-profit-in-job-scheduling</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+          <t>Sort the intervals based on the start time and use dfs to either select the current intervals or not, and find the next avaliable intervals (Use binary search to speed up the searching process), also use cache tech to prevent duplicated work. Time is O(NlogN), space is O(N^2).</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+          <t>https://leetcode.com/problems/maximum-profit-in-job-scheduling/description/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tries</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
-        <is>
-          <t>implement-trie-prefix-tree</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B71" s="7" t="inlineStr">
+        <is>
+          <t>merge-intervals</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
+          <t>Sort the intervals first with the start element, and then iterate all the intervals and merge them, time: O(NlogN).</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
+          <t>https://leetcode.com/problems/merge-intervals/description/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Backtracking</t>
-        </is>
-      </c>
-      <c r="B72" s="7" t="inlineStr">
-        <is>
-          <t>combination-sum</t>
+          <t>Intervals</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>insert-interval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Use dfs to track the every combination of the elements, if equal -&gt; push into result, if exceed the sum or out of range -&gt; break, then continue search the rest of combination, be aware of the shallow copy that push into the result array, might result in call by reference issue.</t>
+          <t>List data structure to append a interval one at a time (decide to append new one or old one or merge them together), finally return the result, time-O(n)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/combination-sum/description/</t>
+          <t>https://leetcode.com/problems/insert-interval/description/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Backtracking</t>
-        </is>
-      </c>
-      <c r="B73" s="7" t="inlineStr">
-        <is>
-          <t>word-search</t>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>happy-number</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Use backtracking tech to search every possible 4 direction to build the word, use label to bloack the text that already visited to avoid reuse the text. Time is O(M*4^N). Space is O(N).</t>
+          <t>Using HashSet to store the number had calculate and continue calculate the sum of the output of every number, if output = 1 return true, if had already exist in the set (cycle) return false</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/word-search/description/</t>
+          <t>https://leetcode.com/problems/happy-number/description/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Backtracking</t>
+          <t>Math &amp; Geometry</t>
         </is>
       </c>
       <c r="B74" s="7" t="inlineStr">
         <is>
-          <t>letter-combinations-of-a-phone-number</t>
+          <t>spiral-matrix</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Use backtracking and a map to map the number to the string, and find all the solution by  building the entire string. Time is O(N*4^N), Space is O(N).</t>
+          <t>Use boundary plus spiral moving tech to move the point to get all the element, time is O(m * n), space is O(1).</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+          <t>https://leetcode.com/problems/spiral-matrix/description/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Backtracking</t>
-        </is>
-      </c>
-      <c r="B75" s="7" t="inlineStr">
-        <is>
-          <t>subsets</t>
+          <t>Math &amp; Geometry</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>plus-one</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Use backtracking to store whether to include the current number or skip it, time O(N * 2^N), space is O(N).</t>
+          <t>Using basic math to carry the digit from end to the start (first create a n+1 array)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/subsets/description/</t>
+          <t>https://leetcode.com/problems/plus-one/description/https://leetcode.com/problems/plus-one/description/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Backtracking</t>
-        </is>
-      </c>
-      <c r="B76" s="7" t="inlineStr">
-        <is>
-          <t>permutations</t>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>maximum-subarray</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Use recursive approach to build the permutations from bottom to top, and insert the one element into the array each step (multiple site insertion), time is O(N! * N^2), space is O(N! * N).</t>
+          <t>Two pointer (temp variable) to walk through the entire array, retain the maximum sum of the array (refresh the negative number to 0 before the current position, because it is not contributing to the result)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/permutations/description/</t>
+          <t>https://leetcode.com/problems/maximum-subarray/description/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="B77" s="7" t="inlineStr">
+        <is>
+          <t>gas-station</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Use greedy algorithm to iterate through the array of diff between gas and cost, than update the position (Check if sum of the diff is positive before the iteration), after iteration, it will find the position (Because it will ensure at least have one answer). Time is O(N), space is O(1).</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/gas-station/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>01-matrix</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Can use dfs, bfs, or dynamic programming to solve this problem, take dp as example, calculate from 4 direction and find the minimum path to the 0 of every point, this can be achieve by dp from upper-left to lower-right and from lower-right to upper-left, and minimum the two result to get the shortest path</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/01-matrix/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2-D Dynamic Programming</t>
+        </is>
+      </c>
+      <c r="B79" s="7" t="inlineStr">
+        <is>
+          <t>unique-paths</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Use Top-Down dynamic programming to compute the result, can even use space optimization tech to reduce the memory usage to only memo the last row. time is O(M*N), space is O(N).</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/unique-paths/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>course-schedule</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Use preMap (HashMap&lt;Integer, List&lt;Integer&gt;&gt;) to record the graph structure of the prereq class and do the dfs for all the class and their adj class, then use visitSet to record the current visit class to detect the loop, the time complexity: O(N + P).</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/course-schedule/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>word-ladder</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Create the every adjacency list of each word, then use BFS to traverse the whole graph and increase the result by 1 after traverse each layer, when met the endWord, return the result, or if not met, return 0. Time is O(M^2*N) where M is the length of the word, space is O(N).</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-ladder/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B82" s="7" t="inlineStr">
+        <is>
+          <t>minimum-height-trees</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Identify the pattern first is important, try building the adjencency list first then identify the leave nodes, then use BFS to pop the node from outside to core nodes, if the nodes less or equal to 2, then find the center of the graph (min height node), be aware of the edge case that node equal to 0 or 1. Time is O(V+E), Space is O(V).</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/minimum-height-trees/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>number-of-islands</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Use dfs and visited array to discover all the unvisited island, time complexity and space complexity are both O(M*N).</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-islands/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Use bfs to spread the rotten, and also record the fresh orange numbers to monitor if there are any orange not been rotted, the time complexity is O(m*n).</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>clone-graph</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Use HashMap to record which Node had already been maped, and use dfs to walk through all the Node and their neighbors, time complexity is O(E+V).</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/clone-graph/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Graphs</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>rotting-oranges</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Use dfs strategy to recursive mark the visited island and find the island util all the adj is sea, the time complexity and space complexity is both O(M*N), because we use the extra memory and M*N loop (also each cell is visited only once by DFS -&gt; M*N).</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotting-oranges/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tries</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>implement-trie-prefix-tree</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Use tree structure (Node that contain HashMap to record character in this layer and a boolean to record end of the words) staring from the root to record the words that has been added, for adding the new words, iterate through the character of the words, if the character not exist yet, add a new node, and finally mark the end of the words for searching.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="inlineStr">
+        <is>
+          <t>combination-sum</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Use dfs to track the every combination of the elements, if equal -&gt; push into result, if exceed the sum or out of range -&gt; break, then continue search the rest of combination, be aware of the shallow copy that push into the result array, might result in call by reference issue.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/combination-sum/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B89" s="7" t="inlineStr">
+        <is>
+          <t>word-search</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Use backtracking tech to search every possible 4 direction to build the word, use label to bloack the text that already visited to avoid reuse the text. Time is O(M*4^N). Space is O(N).</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-search/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B90" s="7" t="inlineStr">
+        <is>
+          <t>letter-combinations-of-a-phone-number</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Use backtracking and a map to map the number to the string, and find all the solution by  building the entire string. Time is O(N*4^N), Space is O(N).</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B91" s="7" t="inlineStr">
+        <is>
+          <t>subsets</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Use backtracking to store whether to include the current number or skip it, time O(N * 2^N), space is O(N).</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/subsets/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Backtracking</t>
+        </is>
+      </c>
+      <c r="B92" s="7" t="inlineStr">
+        <is>
+          <t>permutations</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Use recursive approach to build the permutations from bottom to top, and insert the one element into the array each step (multiple site insertion), time is O(N! * N^2), space is O(N! * N).</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/permutations/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>Union Find</t>
         </is>
       </c>
-      <c r="B77" s="7" t="inlineStr">
+      <c r="B93" s="7" t="inlineStr">
         <is>
           <t>accounts-merge</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Use union find data structure to create mail to index of account and index of account to mail list, the time is O(m*n)log(m*n), the space is (m*n).</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>https://leetcode.com/problems/accounts-merge/description/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>basic-calculator</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Consider 4 condition, number, operation, '(', ')', use stack to store the () temp result, and use sign and number to continue calculate the current result. Time is O(N), space is O(N).</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/basic-calculator/description/</t>
         </is>
       </c>
     </row>
